--- a/Concentration Index.xlsx
+++ b/Concentration Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e/Desktop/Python/ciGenerate/distractionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF81C6-E965-C244-B3AF-CD6A6B305E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF6AF3-0456-7649-8C41-C053E0F60618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="460" windowWidth="21060" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="21060" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Centre</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Sad</t>
   </si>
   <si>
-    <t>Disgust</t>
-  </si>
-  <si>
     <t>Anger</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
     <t>UnEngaged</t>
   </si>
   <si>
-    <t>&gt;50%</t>
-  </si>
-  <si>
-    <t>&lt;10%</t>
-  </si>
-  <si>
-    <t>11-49%</t>
-  </si>
-  <si>
     <t>100% = 4.5 = (5*0.9)</t>
   </si>
   <si>
@@ -160,6 +148,15 @@
   </si>
   <si>
     <t> Arriaga, O. et. al. "Real-time Convolutional Neural Networks for Emotion and Gender Classification." arXiv preprint arXiv:1710.07557 (2017).</t>
+  </si>
+  <si>
+    <t>&lt;25%</t>
+  </si>
+  <si>
+    <t>&gt;65%</t>
+  </si>
+  <si>
+    <t>25-65%</t>
   </si>
 </sst>
 </file>
@@ -197,10 +194,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF24292E"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA47806-BC89-154F-9754-F84CD3B2EDF7}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -633,7 +631,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -647,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>14</v>
@@ -656,10 +654,10 @@
         <v>0.9</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -673,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -682,10 +680,10 @@
         <v>0.6</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -699,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>16</v>
@@ -708,10 +706,10 @@
         <v>0.6</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -725,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>17</v>
@@ -745,16 +743,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -768,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="4">
         <v>0.25</v>
@@ -788,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4">
         <v>0.3</v>
@@ -808,7 +802,7 @@
     </row>
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -821,7 +815,7 @@
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -838,7 +832,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="12">
         <v>1.5</v>
@@ -852,20 +846,20 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -875,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -885,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -904,33 +898,33 @@
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Concentration Index.xlsx
+++ b/Concentration Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e/Desktop/Python/ciGenerate/distractionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF6AF3-0456-7649-8C41-C053E0F60618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC55E1-93B8-7847-A66B-FC060843869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="21060" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="13080" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Centre</t>
   </si>
@@ -126,18 +126,6 @@
     <t>Down</t>
   </si>
   <si>
-    <t>y = 0.5&gt;</t>
-  </si>
-  <si>
-    <t>y=&lt;0.5</t>
-  </si>
-  <si>
-    <t>x= &gt;1.2</t>
-  </si>
-  <si>
-    <t>x = &lt;1.2</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/c/challenges-in-representation-learning-facial-expression-recognition-challenge/data</t>
   </si>
   <si>
@@ -157,6 +145,33 @@
   </si>
   <si>
     <t>25-65%</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>x &lt; 1</t>
+  </si>
+  <si>
+    <t>x &gt; 2</t>
+  </si>
+  <si>
+    <t>x = 1~2</t>
+  </si>
+  <si>
+    <t>&lt;0.2</t>
+  </si>
+  <si>
+    <t>0.2 - 0.3</t>
+  </si>
+  <si>
+    <t>&gt;0.3</t>
+  </si>
+  <si>
+    <t>y &lt;0.5</t>
+  </si>
+  <si>
+    <t>y&gt;=0.5</t>
   </si>
 </sst>
 </file>
@@ -592,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA47806-BC89-154F-9754-F84CD3B2EDF7}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -683,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -709,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,18 +845,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.5</v>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -849,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -859,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -869,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -879,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -898,24 +921,24 @@
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>

--- a/Concentration Index.xlsx
+++ b/Concentration Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e/Desktop/Python/ciGenerate/distractionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EC55E1-93B8-7847-A66B-FC060843869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2CFDC-FB9C-DD45-B6EF-7F30FA495E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="13080" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
+    <workbookView xWindow="2000" yWindow="460" windowWidth="20660" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,13 +280,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA47806-BC89-154F-9754-F84CD3B2EDF7}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,21 +657,21 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4">
         <v>0.9</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -694,10 +694,10 @@
       <c r="H5" s="4">
         <v>0.6</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -706,10 +706,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -720,10 +720,10 @@
       <c r="H6" s="4">
         <v>0.6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -732,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -816,12 +816,12 @@
       <c r="D12"/>
     </row>
     <row r="13" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G14" s="6" t="s">
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -849,13 +849,13 @@
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -871,77 +871,77 @@
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Concentration Index.xlsx
+++ b/Concentration Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e/Desktop/Python/ciGenerate/distractionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2CFDC-FB9C-DD45-B6EF-7F30FA495E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7004FC-A147-6042-A422-0E217BC9A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="460" windowWidth="20660" windowHeight="13140" xr2:uid="{6E1195E9-A09F-7C4B-AAA5-19B2B7495411}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Centre</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>y&gt;=0.5</t>
+  </si>
+  <si>
+    <t>x * (1-y) * size * emotion weight</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA47806-BC89-154F-9754-F84CD3B2EDF7}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -683,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -709,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -732,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -752,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -771,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -791,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -913,9 +916,11 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
